--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KP LIPI 2019\AIKO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5079AC8-E98C-461A-9D9A-8990B1CDCBD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BC3D99-DDF4-4568-8EA2-C99A5592104C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
   <si>
     <t>Data Kayu</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>True Negative</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -317,10 +320,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +633,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I70"/>
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +698,9 @@
         <f>B2-H2</f>
         <v>164</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -719,6 +728,9 @@
         <f>B3-H3</f>
         <v>168</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -746,6 +758,9 @@
         <f>B4-H4</f>
         <v>164</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H4">
         <v>2</v>
       </c>
@@ -773,6 +788,9 @@
         <f t="shared" ref="F5:F13" si="0">B5-H5</f>
         <v>52</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H5">
         <v>1</v>
       </c>
@@ -800,6 +818,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H6">
         <v>4</v>
       </c>
@@ -827,6 +848,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H7">
         <v>2</v>
       </c>
@@ -854,6 +878,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H8">
         <v>1</v>
       </c>
@@ -881,6 +908,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -908,6 +938,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -935,6 +968,9 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -962,6 +998,9 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H12">
         <v>1</v>
       </c>
@@ -989,6 +1028,9 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -1016,6 +1058,9 @@
         <f t="shared" ref="F14:F16" si="1">B14-H14</f>
         <v>88</v>
       </c>
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H14">
         <v>3</v>
       </c>
@@ -1043,6 +1088,9 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H15">
         <v>4</v>
       </c>
@@ -1070,6 +1118,9 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -1097,6 +1148,9 @@
         <f>B17-H17</f>
         <v>66</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H17">
         <v>10</v>
       </c>
@@ -1124,6 +1178,9 @@
         <f>B18-H18</f>
         <v>86</v>
       </c>
+      <c r="G18" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H18">
         <v>13</v>
       </c>
@@ -1151,6 +1208,9 @@
         <f>B19-H19</f>
         <v>53</v>
       </c>
+      <c r="G19" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -1178,6 +1238,9 @@
         <f t="shared" ref="F20:F22" si="2">B20-H20</f>
         <v>23</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -1205,6 +1268,9 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -1232,6 +1298,9 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -1259,6 +1328,9 @@
         <f t="shared" ref="F23:F25" si="3">B23-H23</f>
         <v>24</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H23">
         <v>1</v>
       </c>
@@ -1286,6 +1358,9 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H24">
         <v>0</v>
       </c>
@@ -1313,6 +1388,9 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -1340,6 +1418,9 @@
         <f>B26-H26</f>
         <v>36</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H26">
         <v>0</v>
       </c>
@@ -1367,6 +1448,9 @@
         <f>B27-H27</f>
         <v>39</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -1394,6 +1478,9 @@
         <f>B28-H28</f>
         <v>31</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H28">
         <v>0</v>
       </c>
@@ -1421,6 +1508,9 @@
         <f t="shared" ref="F29:F34" si="4">B29-H29</f>
         <v>61</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H29">
         <v>6</v>
       </c>
@@ -1448,6 +1538,9 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H30">
         <v>10</v>
       </c>
@@ -1475,6 +1568,9 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -1502,6 +1598,9 @@
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H32">
         <v>1</v>
       </c>
@@ -1529,6 +1628,9 @@
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H33">
         <v>2</v>
       </c>
@@ -1556,6 +1658,9 @@
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H34">
         <v>3</v>
       </c>
@@ -1583,6 +1688,9 @@
         <f>B35-H35</f>
         <v>104</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H35">
         <v>3</v>
       </c>
@@ -1610,6 +1718,9 @@
         <f t="shared" ref="F36:F49" si="5">B36-H36</f>
         <v>100</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H36">
         <v>2</v>
       </c>
@@ -1637,6 +1748,9 @@
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H37">
         <v>3</v>
       </c>
@@ -1664,6 +1778,9 @@
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
+      <c r="G38" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H38">
         <v>0</v>
       </c>
@@ -1691,6 +1808,9 @@
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H39">
         <v>0</v>
       </c>
@@ -1718,6 +1838,9 @@
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
+      <c r="G40" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H40">
         <v>0</v>
       </c>
@@ -1745,6 +1868,9 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H41">
         <v>0</v>
       </c>
@@ -1772,6 +1898,9 @@
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H42">
         <v>0</v>
       </c>
@@ -1799,6 +1928,9 @@
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -1826,6 +1958,9 @@
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
+      <c r="G44" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -1853,6 +1988,9 @@
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
+      <c r="G45" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H45">
         <v>0</v>
       </c>
@@ -1880,6 +2018,9 @@
         <f>B46-H46</f>
         <v>53</v>
       </c>
+      <c r="G46" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H46">
         <v>0</v>
       </c>
@@ -1907,6 +2048,9 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
+      <c r="G47" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H47">
         <v>1</v>
       </c>
@@ -1934,6 +2078,9 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
+      <c r="G48" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H48">
         <v>0</v>
       </c>
@@ -1961,6 +2108,9 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H49">
         <v>2</v>
       </c>
@@ -1988,6 +2138,9 @@
         <f>B50-H50</f>
         <v>85</v>
       </c>
+      <c r="G50" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H50">
         <v>0</v>
       </c>
@@ -2015,6 +2168,9 @@
         <f t="shared" ref="F51:F55" si="6">B51-H51</f>
         <v>93</v>
       </c>
+      <c r="G51" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H51">
         <v>0</v>
       </c>
@@ -2042,6 +2198,9 @@
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
+      <c r="G52" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H52">
         <v>0</v>
       </c>
@@ -2069,6 +2228,9 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
+      <c r="G53" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H53">
         <v>0</v>
       </c>
@@ -2096,6 +2258,9 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
+      <c r="G54" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H54">
         <v>0</v>
       </c>
@@ -2123,6 +2288,9 @@
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
+      <c r="G55" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H55">
         <v>1</v>
       </c>
@@ -2150,6 +2318,9 @@
         <f>B56-H56</f>
         <v>60</v>
       </c>
+      <c r="G56" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H56">
         <v>0</v>
       </c>
@@ -2177,6 +2348,9 @@
         <f t="shared" ref="F57:F58" si="7">B57-H57</f>
         <v>72</v>
       </c>
+      <c r="G57" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H57">
         <v>0</v>
       </c>
@@ -2204,6 +2378,9 @@
         <f t="shared" si="7"/>
         <v>68</v>
       </c>
+      <c r="G58" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H58">
         <v>0</v>
       </c>
@@ -2231,6 +2408,9 @@
         <f>B59-H59</f>
         <v>49</v>
       </c>
+      <c r="G59" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H59">
         <v>2</v>
       </c>
@@ -2258,6 +2438,9 @@
         <f t="shared" ref="F60:F61" si="8">B60-H60</f>
         <v>72</v>
       </c>
+      <c r="G60" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H60">
         <v>3</v>
       </c>
@@ -2285,6 +2468,9 @@
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
+      <c r="G61" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H61">
         <v>0</v>
       </c>
@@ -2312,6 +2498,9 @@
         <f>B62-H62</f>
         <v>22</v>
       </c>
+      <c r="G62" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H62">
         <v>0</v>
       </c>
@@ -2339,6 +2528,9 @@
         <f t="shared" ref="F63:F64" si="9">B63-H63</f>
         <v>19</v>
       </c>
+      <c r="G63" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H63">
         <v>0</v>
       </c>
@@ -2366,6 +2558,9 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
+      <c r="G64" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H64">
         <v>0</v>
       </c>
@@ -2393,6 +2588,9 @@
         <f>B65-H65</f>
         <v>108</v>
       </c>
+      <c r="G65" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H65">
         <v>1</v>
       </c>
@@ -2420,6 +2618,9 @@
         <f t="shared" ref="F66:F67" si="10">B66-H66</f>
         <v>112</v>
       </c>
+      <c r="G66" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H66">
         <v>0</v>
       </c>
@@ -2447,6 +2648,9 @@
         <f t="shared" si="10"/>
         <v>133</v>
       </c>
+      <c r="G67" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H67">
         <v>6</v>
       </c>
@@ -2474,6 +2678,9 @@
         <f>B68-H68</f>
         <v>19</v>
       </c>
+      <c r="G68" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H68">
         <v>5</v>
       </c>
@@ -2501,6 +2708,9 @@
         <f t="shared" ref="F69:F70" si="11">B69-H69</f>
         <v>30</v>
       </c>
+      <c r="G69" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H69">
         <v>4</v>
       </c>
@@ -2527,6 +2737,9 @@
       <c r="F70">
         <f t="shared" si="11"/>
         <v>34</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="H70">
         <v>0</v>
